--- a/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="9804"/>
+    <workbookView windowWidth="23136" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>技能id：id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>技能随攻击力增加伤害百分比：addPercon</t>
   </si>
   <si>
+    <t>技能攻击类型：skillAttackType</t>
+  </si>
+  <si>
     <t>毒性射击</t>
   </si>
   <si>
@@ -52,6 +55,12 @@
   </si>
   <si>
     <t>普通攻击</t>
+  </si>
+  <si>
+    <t>横扫八荒</t>
+  </si>
+  <si>
+    <t>劈！</t>
   </si>
 </sst>
 </file>
@@ -60,9 +69,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,6 +82,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -81,36 +113,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,9 +165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,22 +182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,48 +196,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +426,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,24 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -479,26 +494,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +515,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,151 +534,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1022,15 +1034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" ht="86.4" spans="1:9">
+    <row r="1" ht="86.4" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,13 +1070,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1087,13 +1102,16 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1113,13 +1131,16 @@
       <c r="I3">
         <v>0.5</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1138,6 +1159,67 @@
       </c>
       <c r="I4">
         <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23136" windowHeight="9240"/>
+    <workbookView windowWidth="21000" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>技能id：id</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>劈！</t>
+  </si>
+  <si>
+    <t>毒气弹</t>
   </si>
 </sst>
 </file>
@@ -68,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,14 +85,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -98,36 +166,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,83 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,25 +238,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,157 +364,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +429,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,30 +505,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -488,30 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,142 +549,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1034,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" ht="86.4" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -1070,7 +1070,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1220,6 +1220,38 @@
       </c>
       <c r="J6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>技能id：id</t>
   </si>
@@ -39,7 +39,7 @@
     <t>技能造成buffer：bufferIds</t>
   </si>
   <si>
-    <t>技能伤害类型：skillType</t>
+    <t>技能类型：skillType</t>
   </si>
   <si>
     <t>技能随攻击力增加伤害百分比：addPercon</t>
@@ -48,6 +48,12 @@
     <t>技能攻击类型：skillAttackType</t>
   </si>
   <si>
+    <t>技能吟唱时间：chantTime</t>
+  </si>
+  <si>
+    <t>技能伤害类型：skillDamageId</t>
+  </si>
+  <si>
     <t>毒性射击</t>
   </si>
   <si>
@@ -64,6 +70,18 @@
   </si>
   <si>
     <t>毒气弹</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>阳光治愈</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>召唤灵体</t>
   </si>
 </sst>
 </file>
@@ -72,11 +90,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +104,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -100,6 +157,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,9 +194,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,93 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +453,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,17 +486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,11 +547,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,138 +573,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1034,15 +1064,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="86.4" spans="1:10">
+    <row r="1" ht="86.4" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,13 +1103,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1105,13 +1141,19 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1134,13 +1176,19 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1163,13 +1211,19 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1192,13 +1246,19 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1221,13 +1281,19 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1252,6 +1318,156 @@
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9240"/>
+    <workbookView windowWidth="18395" windowHeight="8255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>技能id：id</t>
   </si>
@@ -51,7 +51,7 @@
     <t>技能吟唱时间：chantTime</t>
   </si>
   <si>
-    <t>技能伤害类型：skillDamageId</t>
+    <t>技能伤害类型：skillDamageType</t>
   </si>
   <si>
     <t>毒性射击</t>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>召唤灵体</t>
+  </si>
+  <si>
+    <t>爪击</t>
+  </si>
+  <si>
+    <t>爪霸天</t>
   </si>
 </sst>
 </file>
@@ -90,8 +96,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -109,9 +115,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,15 +168,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,84 +223,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,20 +258,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,56 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,6 +486,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -545,11 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1103,10 +1106,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1451,22 +1454,91 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11"/>
+        <v>10</v>
+      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
     </row>

--- a/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18395" windowHeight="8255"/>
+    <workbookView windowWidth="18180" windowHeight="7692"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,77 +122,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -221,16 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +237,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,41 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,16 +480,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -545,6 +512,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,6 +535,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,145 +567,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1466,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>

--- a/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/skillMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18180" windowHeight="7692"/>
+    <workbookView windowWidth="16308" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>技能id：id</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>爪霸天</t>
+  </si>
+  <si>
+    <t>秒杀技能</t>
   </si>
 </sst>
 </file>
@@ -95,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,74 +119,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,16 +140,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,42 +223,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,55 +271,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,127 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +462,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,58 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +536,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1539,6 +1542,41 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>9999</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
